--- a/data.xlsx
+++ b/data.xlsx
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
-  <si>
-    <t>Tổng sản phẩm trong nước theo giá thực tế phân theo khu vực kinh tế chia theo Năm, Chỉ tiêu và Khu vực kinh tế</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
   <si>
     <t>Tổng số</t>
   </si>
@@ -119,15 +116,14 @@
     </font>
     <font>
       <b/>
-      <sz val="14"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -158,11 +154,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -467,10 +462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -483,447 +478,428 @@
     <col min="6" max="6" width="35.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>4</v>
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>613443</v>
+      </c>
+      <c r="C2">
+        <v>138285</v>
+      </c>
+      <c r="D2">
+        <v>242126</v>
+      </c>
+      <c r="E2">
+        <v>233032</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>715307</v>
+      </c>
+      <c r="C3">
+        <v>155992</v>
+      </c>
+      <c r="D3">
+        <v>287616</v>
+      </c>
+      <c r="E3">
+        <v>271699</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3">
-        <v>613443</v>
-      </c>
-      <c r="C3">
-        <v>138285</v>
-      </c>
-      <c r="D3">
-        <v>242126</v>
-      </c>
-      <c r="E3">
-        <v>233032</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B4">
-        <v>715307</v>
+        <v>914001</v>
       </c>
       <c r="C4">
-        <v>155992</v>
+        <v>176402</v>
       </c>
       <c r="D4">
-        <v>287616</v>
+        <v>348519</v>
       </c>
       <c r="E4">
-        <v>271699</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>7</v>
+        <v>389080</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B5">
-        <v>914001</v>
+        <v>1061565</v>
       </c>
       <c r="C5">
-        <v>176402</v>
+        <v>198797</v>
       </c>
       <c r="D5">
-        <v>348519</v>
+        <v>409602</v>
       </c>
       <c r="E5">
-        <v>389080</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>7</v>
+        <v>453166</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B6">
-        <v>1061565</v>
+        <v>1246769</v>
       </c>
       <c r="C6">
-        <v>198797</v>
+        <v>232586</v>
       </c>
       <c r="D6">
-        <v>409602</v>
+        <v>480151</v>
       </c>
       <c r="E6">
-        <v>453166</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>7</v>
+        <v>534032</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B7">
-        <v>1246769</v>
+        <v>1616047</v>
       </c>
       <c r="C7">
-        <v>232586</v>
+        <v>329886</v>
       </c>
       <c r="D7">
-        <v>480151</v>
+        <v>599193</v>
       </c>
       <c r="E7">
-        <v>534032</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>7</v>
+        <v>686968</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B8">
-        <v>1616047</v>
+        <v>1809149</v>
       </c>
       <c r="C8">
-        <v>329886</v>
+        <v>346786</v>
       </c>
       <c r="D8">
-        <v>599193</v>
+        <v>676408</v>
       </c>
       <c r="E8">
-        <v>686968</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>7</v>
+        <v>785955</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B9">
-        <v>1809149</v>
+        <v>2739843.17</v>
       </c>
       <c r="C9">
-        <v>346786</v>
+        <v>421253.37</v>
       </c>
       <c r="D9">
-        <v>676408</v>
+        <v>904775.04</v>
       </c>
       <c r="E9">
-        <v>785955</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>7</v>
+        <v>1113126.28</v>
+      </c>
+      <c r="F9">
+        <v>300688.48</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B10">
-        <v>2739843.17</v>
+        <v>3539881.31</v>
       </c>
       <c r="C10">
-        <v>421253.37</v>
+        <v>575554.56000000006</v>
       </c>
       <c r="D10">
-        <v>904775.04</v>
+        <v>1224105.43</v>
       </c>
       <c r="E10">
-        <v>1113126.28</v>
+        <v>1377262.14</v>
       </c>
       <c r="F10">
-        <v>300688.48</v>
+        <v>362959.19</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B11">
-        <v>3539881.31</v>
+        <v>4073762.29</v>
       </c>
       <c r="C11">
-        <v>575554.56000000006</v>
+        <v>659929.43000000005</v>
       </c>
       <c r="D11">
-        <v>1224105.43</v>
+        <v>1460860.62</v>
       </c>
       <c r="E11">
-        <v>1377262.14</v>
+        <v>1593608.56</v>
       </c>
       <c r="F11">
-        <v>362959.19</v>
+        <v>359363.67</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B12">
-        <v>4073762.29</v>
+        <v>4473655.5999999996</v>
       </c>
       <c r="C12">
-        <v>659929.43000000005</v>
+        <v>680694.09</v>
       </c>
       <c r="D12">
-        <v>1460860.62</v>
+        <v>1591509.71</v>
       </c>
       <c r="E12">
-        <v>1593608.56</v>
+        <v>1813709.91</v>
       </c>
       <c r="F12">
-        <v>359363.67</v>
+        <v>387741.89</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B13">
-        <v>4473655.5999999996</v>
+        <v>4937031.6799999997</v>
       </c>
       <c r="C13">
-        <v>680694.09</v>
+        <v>734647.54</v>
       </c>
       <c r="D13">
-        <v>1591509.71</v>
+        <v>1742701.51</v>
       </c>
       <c r="E13">
-        <v>1813709.91</v>
+        <v>2020411.56</v>
       </c>
       <c r="F13">
-        <v>387741.89</v>
+        <v>439271.07</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B14">
-        <v>4937031.6799999997</v>
+        <v>5191323.7300000004</v>
       </c>
       <c r="C14">
-        <v>734647.54</v>
+        <v>751429.89</v>
       </c>
       <c r="D14">
-        <v>1742701.51</v>
+        <v>1778887.37</v>
       </c>
       <c r="E14">
-        <v>2020411.56</v>
+        <v>2190375.6800000002</v>
       </c>
       <c r="F14">
-        <v>439271.07</v>
+        <v>470630.79</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B15">
-        <v>5191323.7300000004</v>
+        <v>5639401</v>
       </c>
       <c r="C15">
-        <v>751429.89</v>
+        <v>779266.83</v>
       </c>
       <c r="D15">
-        <v>1778887.37</v>
+        <v>1923894.56</v>
       </c>
       <c r="E15">
-        <v>2190375.6800000002</v>
+        <v>2416736.54</v>
       </c>
       <c r="F15">
-        <v>470630.79</v>
+        <v>519503.08</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B16">
-        <v>5639401</v>
+        <v>6293904.5499999998</v>
       </c>
       <c r="C16">
-        <v>779266.83</v>
+        <v>813794.27</v>
       </c>
       <c r="D16">
-        <v>1923894.56</v>
+        <v>2227435.73</v>
       </c>
       <c r="E16">
-        <v>2416736.54</v>
+        <v>2679990.15</v>
       </c>
       <c r="F16">
-        <v>519503.08</v>
+        <v>572684.4</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B17">
-        <v>6293904.5499999998</v>
+        <v>7009042.1299999999</v>
       </c>
       <c r="C17">
-        <v>813794.27</v>
+        <v>862579.58</v>
       </c>
       <c r="D17">
-        <v>2227435.73</v>
+        <v>2561274.5499999998</v>
       </c>
       <c r="E17">
-        <v>2679990.15</v>
+        <v>2955777.4</v>
       </c>
       <c r="F17">
-        <v>572684.4</v>
+        <v>629410.6</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B18">
-        <v>7009042.1299999999</v>
+        <v>7707200.29</v>
       </c>
       <c r="C18">
-        <v>862579.58</v>
+        <v>908257.22</v>
       </c>
       <c r="D18">
-        <v>2561274.5499999998</v>
+        <v>2836491.47</v>
       </c>
       <c r="E18">
-        <v>2955777.4</v>
+        <v>3273149.53</v>
       </c>
       <c r="F18">
-        <v>629410.6</v>
+        <v>689302.07</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B19">
-        <v>7707200.29</v>
+        <v>8044385.7300000004</v>
       </c>
       <c r="C19">
-        <v>908257.22</v>
+        <v>1018050</v>
       </c>
       <c r="D19">
-        <v>2836491.47</v>
+        <v>2955806.03</v>
       </c>
       <c r="E19">
-        <v>3273149.53</v>
+        <v>3365059.9</v>
       </c>
       <c r="F19">
-        <v>689302.07</v>
+        <v>705470.32</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B20">
-        <v>8044385.7300000004</v>
+        <v>8487475.5999999996</v>
       </c>
       <c r="C20">
-        <v>1018050</v>
+        <v>1069685</v>
       </c>
       <c r="D20">
-        <v>2955806.03</v>
+        <v>3173596.07</v>
       </c>
       <c r="E20">
-        <v>3365059.9</v>
+        <v>3501715.16</v>
       </c>
       <c r="F20">
-        <v>705470.32</v>
+        <v>742480.14</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B21">
-        <v>8487475.5999999996</v>
+        <v>9548737.6699999999</v>
       </c>
       <c r="C21">
-        <v>1069685</v>
+        <v>1141602.1200000001</v>
       </c>
       <c r="D21">
-        <v>3173596.07</v>
+        <v>3645266.52</v>
       </c>
       <c r="E21">
-        <v>3501715.16</v>
+        <v>3945763.2</v>
       </c>
       <c r="F21">
-        <v>742480.14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22">
-        <v>9548737.6699999999</v>
-      </c>
-      <c r="C22">
-        <v>1141602.1200000001</v>
-      </c>
-      <c r="D22">
-        <v>3645266.52</v>
-      </c>
-      <c r="E22">
-        <v>3945763.2</v>
-      </c>
-      <c r="F22">
         <v>816105.84</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -15,12 +15,11 @@
     <sheet name="V03.02" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Tổng số</t>
   </si>
@@ -38,9 +37,6 @@
   </si>
   <si>
     <t>2003</t>
-  </si>
-  <si>
-    <t>..</t>
   </si>
   <si>
     <t>2004</t>
@@ -465,7 +461,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -480,7 +476,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -514,13 +510,11 @@
       <c r="E2">
         <v>233032</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>715307</v>
@@ -534,13 +528,11 @@
       <c r="E3">
         <v>271699</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4">
         <v>914001</v>
@@ -554,13 +546,11 @@
       <c r="E4">
         <v>389080</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>1061565</v>
@@ -574,13 +564,11 @@
       <c r="E5">
         <v>453166</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6">
         <v>1246769</v>
@@ -594,13 +582,11 @@
       <c r="E6">
         <v>534032</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7">
         <v>1616047</v>
@@ -614,13 +600,11 @@
       <c r="E7">
         <v>686968</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8">
         <v>1809149</v>
@@ -634,13 +618,11 @@
       <c r="E8">
         <v>785955</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9">
         <v>2739843.17</v>
@@ -660,7 +642,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10">
         <v>3539881.31</v>
@@ -680,7 +662,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11">
         <v>4073762.29</v>
@@ -700,7 +682,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12">
         <v>4473655.5999999996</v>
@@ -720,7 +702,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13">
         <v>4937031.6799999997</v>
@@ -740,7 +722,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B14">
         <v>5191323.7300000004</v>
@@ -760,7 +742,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B15">
         <v>5639401</v>
@@ -780,7 +762,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B16">
         <v>6293904.5499999998</v>
@@ -800,7 +782,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>7009042.1299999999</v>
@@ -820,7 +802,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B18">
         <v>7707200.29</v>
@@ -840,7 +822,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>8044385.7300000004</v>
@@ -860,7 +842,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20">
         <v>8487475.5999999996</v>
@@ -880,7 +862,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B21">
         <v>9548737.6699999999</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Tổng số</t>
   </si>
@@ -91,9 +91,6 @@
   </si>
   <si>
     <t>2021</t>
-  </si>
-  <si>
-    <t>Sơ bộ 2022</t>
   </si>
   <si>
     <t>Năm</t>
@@ -150,11 +147,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -460,8 +460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -476,7 +476,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -861,8 +861,8 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>24</v>
+      <c r="A21" s="3">
+        <v>2022</v>
       </c>
       <c r="B21">
         <v>9548737.6699999999</v>
